--- a/RGM EnvSx.xlsx
+++ b/RGM EnvSx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewpierson/Desktop/Heloderma Spatial/Heloderma Spatial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B25B5-5E56-3D45-9A01-6FB754D0D320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03EFDAC-C6A9-0444-9797-FED3659E34C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="1320" windowWidth="21160" windowHeight="10220" xr2:uid="{DB427BCB-D21C-CB48-B2D9-6394BCDE6647}"/>
+    <workbookView xWindow="320" yWindow="1320" windowWidth="14280" windowHeight="10220" xr2:uid="{DB427BCB-D21C-CB48-B2D9-6394BCDE6647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Environment</t>
   </si>
@@ -60,31 +60,7 @@
     <t>male</t>
   </si>
   <si>
-    <t>22.1 ± 3.7</t>
-  </si>
-  <si>
-    <t>43.2 ± 5.8</t>
-  </si>
-  <si>
-    <t>9.8 ± 1.1</t>
-  </si>
-  <si>
-    <t>11.8 ± 1.8</t>
-  </si>
-  <si>
     <t>Home Range (95% MCP)</t>
-  </si>
-  <si>
-    <t>20.6 ± 2.6</t>
-  </si>
-  <si>
-    <t>42.0 ± 54.9</t>
-  </si>
-  <si>
-    <t>7.1 ± 0.7</t>
-  </si>
-  <si>
-    <t>9.2 ± 1.4</t>
   </si>
   <si>
     <r>
@@ -106,7 +82,72 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Raw group means of 100% and 95%  MCP home ranges of Stone Canyon and Owl Head Buttes. Grouped by environment and sex.</t>
+      <t>Raw group means of 100% and 95% MCP home ranges of Stone Canyon and Owl Head Buttes. Grouped by environment and sex.</t>
+    </r>
+  </si>
+  <si>
+    <t>Home Range (95% KDE)</t>
+  </si>
+  <si>
+    <t>Home Range (50% KDE)</t>
+  </si>
+  <si>
+    <t>9.0 ± 0.8 S.E.</t>
+  </si>
+  <si>
+    <t>6.0 ± 0.5 S.E.</t>
+  </si>
+  <si>
+    <t>23.0 ± 1.8 S.E.</t>
+  </si>
+  <si>
+    <t>35.0 ± 3.3 S.E.</t>
+  </si>
+  <si>
+    <t>22.1 ± 3.7 S.E.</t>
+  </si>
+  <si>
+    <t>43.2 ± 5.8 S.E.</t>
+  </si>
+  <si>
+    <t>9.8 ± 1.1 S.E.</t>
+  </si>
+  <si>
+    <t>11.8 ± 1.8 S.E.</t>
+  </si>
+  <si>
+    <t>20.6 ± 2.6 S.E.</t>
+  </si>
+  <si>
+    <t>42.0 ± 54.9 S.E.</t>
+  </si>
+  <si>
+    <t>7.1 ± 0.7 S.E.</t>
+  </si>
+  <si>
+    <t>9.2 ± 1.4 S.E.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Table 7 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Raw group means of 95% and 50% KDE home ranges of Stone Canyon. Grouped by environment and sex.</t>
     </r>
   </si>
 </sst>
@@ -507,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CD31DA-A871-D840-AB65-4FB27201EAED}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +565,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -550,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
@@ -567,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="6">
         <v>6.6</v>
@@ -590,13 +631,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6">
         <v>12.5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G4" s="6">
         <v>11.7</v>
@@ -613,13 +654,13 @@
         <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6">
         <v>2.2999999999999998</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5" s="6">
         <v>1.4</v>
@@ -636,21 +677,102 @@
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9">
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G6" s="9">
         <v>2.9</v>
       </c>
     </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8">
+        <v>13</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2.9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/RGM EnvSx.xlsx
+++ b/RGM EnvSx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewpierson/Desktop/Heloderma Spatial/Heloderma Spatial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03EFDAC-C6A9-0444-9797-FED3659E34C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0916A127-33FE-EC42-8767-8E27A3F1FD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="1320" windowWidth="14280" windowHeight="10220" xr2:uid="{DB427BCB-D21C-CB48-B2D9-6394BCDE6647}"/>
+    <workbookView xWindow="320" yWindow="1320" windowWidth="22560" windowHeight="10220" xr2:uid="{DB427BCB-D21C-CB48-B2D9-6394BCDE6647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Environment</t>
   </si>
@@ -61,6 +61,54 @@
   </si>
   <si>
     <t>Home Range (95% MCP)</t>
+  </si>
+  <si>
+    <t>Home Range (95% KDE)</t>
+  </si>
+  <si>
+    <t>Home Range (50% KDE)</t>
+  </si>
+  <si>
+    <t>9.0 ± 0.8 S.E.</t>
+  </si>
+  <si>
+    <t>6.0 ± 0.5 S.E.</t>
+  </si>
+  <si>
+    <t>23.0 ± 1.8 S.E.</t>
+  </si>
+  <si>
+    <t>35.0 ± 3.3 S.E.</t>
+  </si>
+  <si>
+    <t>22.1 ± 3.7 S.E.</t>
+  </si>
+  <si>
+    <t>43.2 ± 5.8 S.E.</t>
+  </si>
+  <si>
+    <t>9.8 ± 1.1 S.E.</t>
+  </si>
+  <si>
+    <t>11.8 ± 1.8 S.E.</t>
+  </si>
+  <si>
+    <t>20.6 ± 2.6 S.E.</t>
+  </si>
+  <si>
+    <t>42.0 ± 54.9 S.E.</t>
+  </si>
+  <si>
+    <t>7.1 ± 0.7 S.E.</t>
+  </si>
+  <si>
+    <t>9.2 ± 1.4 S.E.</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
+  <si>
+    <t>a.</t>
   </si>
   <si>
     <r>
@@ -72,7 +120,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Table 4 | </t>
+      <t xml:space="preserve">Table 4 | a. </t>
     </r>
     <r>
       <rPr>
@@ -82,52 +130,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Raw group means of 100% and 95% MCP home ranges of Stone Canyon and Owl Head Buttes. Grouped by environment and sex.</t>
+      <t xml:space="preserve">Raw group means of 100% and 95% MCP home ranges of Stone Canyon and Owl Head Buttes. </t>
     </r>
-  </si>
-  <si>
-    <t>Home Range (95% KDE)</t>
-  </si>
-  <si>
-    <t>Home Range (50% KDE)</t>
-  </si>
-  <si>
-    <t>9.0 ± 0.8 S.E.</t>
-  </si>
-  <si>
-    <t>6.0 ± 0.5 S.E.</t>
-  </si>
-  <si>
-    <t>23.0 ± 1.8 S.E.</t>
-  </si>
-  <si>
-    <t>35.0 ± 3.3 S.E.</t>
-  </si>
-  <si>
-    <t>22.1 ± 3.7 S.E.</t>
-  </si>
-  <si>
-    <t>43.2 ± 5.8 S.E.</t>
-  </si>
-  <si>
-    <t>9.8 ± 1.1 S.E.</t>
-  </si>
-  <si>
-    <t>11.8 ± 1.8 S.E.</t>
-  </si>
-  <si>
-    <t>20.6 ± 2.6 S.E.</t>
-  </si>
-  <si>
-    <t>42.0 ± 54.9 S.E.</t>
-  </si>
-  <si>
-    <t>7.1 ± 0.7 S.E.</t>
-  </si>
-  <si>
-    <t>9.2 ± 1.4 S.E.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -137,7 +141,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Table 7 | </t>
+      <t>b.</t>
     </r>
     <r>
       <rPr>
@@ -147,7 +151,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Raw group means of 95% and 50% KDE home ranges of Stone Canyon. Grouped by environment and sex.</t>
+      <t xml:space="preserve"> Raw group means of 95% and 50% KDE home range sizes. Both MCP and KDE outputs are grouped by environment and sex. </t>
     </r>
   </si>
 </sst>
@@ -158,8 +162,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -190,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,31 +219,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CD31DA-A871-D840-AB65-4FB27201EAED}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +607,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -574,205 +616,215 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="3">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E5" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="G5" s="4">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C7" s="6">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="G7" s="7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="9">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.7</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="8">
-        <v>13</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="9">
-        <v>7.3</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="G11" s="7">
         <v>2.9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
